--- a/diagram_data/2009_diagram_data.xlsx
+++ b/diagram_data/2009_diagram_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,426 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P21_Barton &amp; Sutcliffe_2009_HR_Overcoming dysfunctional mometum - organizational safety as a social achievement.png</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P18_Bunderson &amp; Thompson_2009_ASQ_The Call of the Wild.png</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P13_Elsbach_2009_HR_Identity affirmation through signature style - a study of toy car designers.png</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P7_Gordon, Clegg &amp; Kornberger_2009_OrgStudies_Embedded Ethics - Discourse and Power in the New south Wales Police Service.png</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F2_P2_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F2_P25_Levina &amp; Orlikowski_2009_AMJ_Understanding Shifting Power Relations within and across Organizations a Critical Genre Analysis.png</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P5_Rerup_2009_OrgSci_Attentional Triangulation.png</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P7_Sonenshein_2009_OrgSci_Emergence of Ethical Issues During Strategic Change Implementation.png</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P7_Kreiner, Hollensbe &amp; Sheep_2009_AMJ_Balancing Borders and Bridges Negotiating the Work-Home Interface Via Boundary Work Tactics.png</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>final_figures/2009/F1_P10_Levina &amp; Orlikowski_2009_AMJ_Understanding Shifting Power Relations within and across Organizations a Critical Genre Analysis.png</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
